--- a/Correlation/ThresholdGraph/ThresholdGraphExcel.xlsx
+++ b/Correlation/ThresholdGraph/ThresholdGraphExcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>E-RAB DR RAN (LTE_5025G)</t>
   </si>
@@ -28,12 +28,18 @@
     <t>E-UTRAN E-RAB stp SR (LTE_5017A)</t>
   </si>
   <si>
+    <t>Avg PDCP cell thp DL (LTE_5292D)</t>
+  </si>
+  <si>
     <t>Avg PDCP cell thp UL (LTE_5289D)</t>
   </si>
   <si>
     <t>SIGN_CONN_ESTAB_COMP (M8013C5)</t>
   </si>
   <si>
+    <t>Total RRC Conn Re-estab SR (LTE_5143A)</t>
+  </si>
+  <si>
     <t>E-UTRAN E-RAB Setup Attempts (LTE_5118A)</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>Avg IP thp DL QCI5 (LTE_5507A)</t>
   </si>
   <si>
+    <t>Avg IP thp UL QCI5 (LTE_5516A)</t>
+  </si>
+  <si>
     <t>Avg IP thp UL QCI8 (LTE_5519A)</t>
   </si>
   <si>
@@ -79,9 +88,15 @@
     <t>IP_TPUT_VOL_DL_QCI_5 (M8012C125)</t>
   </si>
   <si>
+    <t>E-UTRAN avg IP sched thp UL, QCI5 (LTE_5363A)</t>
+  </si>
+  <si>
     <t>IP_TPUT_VOL_UL_QCI_5 (M8012C99)</t>
   </si>
   <si>
+    <t>INTER_ENB_HO_PREP (M8014C0)</t>
+  </si>
+  <si>
     <t>Total CSFB Attempts (Redirect + PSHO) (DARWIN_1A)</t>
   </si>
   <si>
@@ -91,15 +106,36 @@
     <t>ISYS_HO_GERAN_SRVCC_ATT (M8016C33)</t>
   </si>
   <si>
+    <t>Avg RSSI for PUSCH (LTE_5444B)</t>
+  </si>
+  <si>
+    <t>Avg UE PWR Headroom PUSCH (LTE_536B)</t>
+  </si>
+  <si>
+    <t>Avg SINR for PUSCH (LTE_5544B)</t>
+  </si>
+  <si>
     <t>Perc UL_SCH TB RTRANS (LTE_140B)</t>
   </si>
   <si>
+    <t>Avg conn UEs area (LTE_5241B)</t>
+  </si>
+  <si>
     <t>Avg act UEs DL (LTE_5800E)</t>
   </si>
   <si>
+    <t>Avg act UEs sched data DL (LTE_5501B)</t>
+  </si>
+  <si>
+    <t>Avg act UEs sched data UL (LTE_5502B)</t>
+  </si>
+  <si>
     <t>E-UTRAN Avg PRB usage per TTI DL (LTE_5276B)</t>
   </si>
   <si>
+    <t>Avg PRB usage per TTI UL (LTE_5273B)</t>
+  </si>
+  <si>
     <t>E-RAB Stp Att, QCI1 (LTE_5205B)</t>
   </si>
   <si>
@@ -113,6 +149,9 @@
   </si>
   <si>
     <t>E-UTRAN PDCP SDU disc R DL QCI1 (LTE_5256B)</t>
+  </si>
+  <si>
+    <t>Avg PDCP SDU Delay DL QCI1 (LTE_5471A)</t>
   </si>
   <si>
     <t>E-UTRAN E-RAB act time QCI1 (LTE_5576A)</t>
@@ -473,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -501,8 +540,20 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,10 +561,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,13 +581,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -535,13 +601,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -560,10 +632,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -582,13 +666,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -596,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -609,8 +696,14 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -618,13 +711,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -632,10 +722,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -643,10 +736,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -654,10 +750,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -665,10 +770,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -676,10 +796,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -687,10 +810,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,16 +827,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -715,19 +838,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -735,25 +849,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -761,10 +860,19 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -772,13 +880,34 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -786,13 +915,34 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -800,10 +950,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -811,25 +961,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -837,16 +975,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -854,13 +986,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -868,22 +1000,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -891,10 +1011,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -902,25 +1037,37 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -928,13 +1075,28 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -944,8 +1106,11 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -956,7 +1121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -964,13 +1129,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -978,16 +1140,261 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
         <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
